--- a/Task1/Property Median/Formatted Dataset/ACT Median Price 2018 Feb.xlsx
+++ b/Task1/Property Median/Formatted Dataset/ACT Median Price 2018 Feb.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Property Analysis BI Developer Standard Sprint Instruction - Part 1\Task1\Property Median\Formatted Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33511DCC-DE21-44B9-91A7-BDFAAF50F630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35133D31-9253-45B9-B74E-584C44E1E77B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Act Property Prices - Feb 2018" sheetId="1" r:id="rId1"/>
     <sheet name="By Disctrict - Feb 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">'Act Property Prices - Feb 2018'!$A$30</definedName>
-    <definedName name="_ftnref1" localSheetId="0">'Act Property Prices - Feb 2018'!$A$16</definedName>
+    <definedName name="_ftn1" localSheetId="0">'Act Property Prices - Feb 2018'!#REF!</definedName>
+    <definedName name="_ftnref1" localSheetId="0">'Act Property Prices - Feb 2018'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,35 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
-  <si>
-    <t>Median Price</t>
-  </si>
-  <si>
-    <t>Average Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Level</t>
   </si>
   <si>
-    <t>Houses</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Turnover</t>
-  </si>
-  <si>
     <t>Belconnen</t>
   </si>
   <si>
@@ -83,19 +62,55 @@
     <t>Weston Creek</t>
   </si>
   <si>
-    <t>Houses4</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
     <t>Change Monthly%</t>
   </si>
   <si>
     <t>Change tty3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Houses Median</t>
+  </si>
+  <si>
+    <t>Houses Average</t>
+  </si>
+  <si>
+    <t>Houses Turnover</t>
+  </si>
+  <si>
+    <t>Units Median</t>
+  </si>
+  <si>
+    <t>Units Average</t>
+  </si>
+  <si>
+    <t>Units Turnover</t>
+  </si>
+  <si>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>House Median Price</t>
+  </si>
+  <si>
+    <t>House Average Price</t>
+  </si>
+  <si>
+    <t>House Turnover</t>
+  </si>
+  <si>
+    <t>Unit Median Price</t>
+  </si>
+  <si>
+    <t>Unit Average Price</t>
+  </si>
+  <si>
+    <t>Total Residential Median Price</t>
+  </si>
+  <si>
+    <t>Total Residential Average Price</t>
+  </si>
+  <si>
+    <t>Total Residential Turnover</t>
   </si>
 </sst>
 </file>
@@ -134,14 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,177 +434,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>699500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="1">
+        <v>785917</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" s="1">
+        <v>406</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.33200000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>448000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>470939</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>699500</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>785917</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>406</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-0.33200000000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
+      <c r="B7" s="1">
+        <v>529</v>
       </c>
       <c r="C7" s="1">
-        <v>448000</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>-0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>530000</v>
       </c>
       <c r="C8" s="1">
-        <v>470939</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>607710</v>
       </c>
       <c r="C9" s="1">
-        <v>529</v>
+        <v>-1E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>530000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>607710</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-1E-3</v>
-      </c>
-      <c r="E12" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
         <v>935</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C10" s="1">
         <v>-0.33400000000000002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D10" s="1">
         <v>-0.23499999999999999</v>
       </c>
     </row>
@@ -604,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD6C3E1-9CBA-4DCE-AC1F-1294D1F80019}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,228 +611,212 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>626500</v>
+      </c>
+      <c r="C2" s="3">
+        <v>657090</v>
+      </c>
+      <c r="D2">
+        <v>87</v>
+      </c>
+      <c r="F2" s="3">
+        <v>449000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>461008</v>
+      </c>
+      <c r="H2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
+      <c r="B3" s="3">
+        <v>718500</v>
+      </c>
+      <c r="C3" s="3">
+        <v>702451</v>
+      </c>
+      <c r="D3">
+        <v>105</v>
+      </c>
+      <c r="F3" s="3">
+        <v>389950</v>
+      </c>
+      <c r="G3" s="3">
+        <v>395032</v>
+      </c>
+      <c r="H3">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>626500</v>
+        <v>860000</v>
       </c>
       <c r="C4" s="3">
-        <v>657090</v>
+        <v>830357</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
-        <v>449000</v>
+        <v>429900</v>
       </c>
       <c r="G4" s="3">
-        <v>461008</v>
+        <v>441174</v>
       </c>
       <c r="H4">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>718500</v>
+        <v>1100000</v>
       </c>
       <c r="C5" s="3">
-        <v>702451</v>
+        <v>1134621</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3">
-        <v>389950</v>
+        <v>484000</v>
       </c>
       <c r="G5" s="3">
-        <v>395032</v>
+        <v>511331</v>
       </c>
       <c r="H5">
-        <v>97</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>860000</v>
+        <v>1235000</v>
       </c>
       <c r="C6" s="3">
-        <v>830357</v>
+        <v>1351083</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3">
-        <v>429900</v>
+        <v>480000</v>
       </c>
       <c r="G6" s="3">
-        <v>441174</v>
+        <v>585064</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1100000</v>
+        <v>570000</v>
       </c>
       <c r="C7" s="3">
-        <v>1134621</v>
+        <v>594400</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3">
-        <v>484000</v>
+        <v>379000</v>
       </c>
       <c r="G7" s="3">
-        <v>511331</v>
+        <v>385144</v>
       </c>
       <c r="H7">
-        <v>172</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>1235000</v>
+        <v>742500</v>
       </c>
       <c r="C8" s="3">
-        <v>1351083</v>
+        <v>835714</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
-        <v>480000</v>
+        <v>495000</v>
       </c>
       <c r="G8" s="3">
-        <v>585064</v>
+        <v>508833</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>570000</v>
+        <v>858500</v>
       </c>
       <c r="C9" s="3">
-        <v>594400</v>
+        <v>940993</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
-        <v>379000</v>
+        <v>354500</v>
       </c>
       <c r="G9" s="3">
-        <v>385144</v>
+        <v>449194</v>
       </c>
       <c r="H9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>742500</v>
-      </c>
-      <c r="C10" s="3">
-        <v>835714</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3">
-        <v>495000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>508833</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>858500</v>
-      </c>
-      <c r="C11" s="3">
-        <v>940993</v>
-      </c>
-      <c r="D11">
         <v>30</v>
       </c>
-      <c r="F11" s="3">
-        <v>354500</v>
-      </c>
-      <c r="G11" s="3">
-        <v>449194</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>